--- a/BMEUser_Testcases.xlsx
+++ b/BMEUser_Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="546">
   <si>
     <t xml:space="preserve">Project Name            </t>
   </si>
@@ -2332,6 +2332,9 @@
  5)Enter on login button 
 6)Click on GPU button
 8)Click on  Export to  Exxcel button</t>
+  </si>
+  <si>
+    <t>Hello Akshay</t>
   </si>
 </sst>
 </file>
@@ -2863,8 +2866,8 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="12" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5958,7 +5961,9 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
